--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.3_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2932815792964595</v>
+        <v>0.3170911031059833</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29328157929645954, 'ngram_match_score': 0.14733841067337738, 'weighted_ngram_match_score': 0.17230805303260732, 'syntax_match_score': 0.5439560439560439, 'dataflow_match_score': 0.30952380952380953}</t>
+          <t>{'codebleu': 0.3170911031059833, 'ngram_match_score': 0.14733841067337738, 'weighted_ngram_match_score': 0.17230805303260732, 'syntax_match_score': 0.5439560439560439, 'dataflow_match_score': 0.40476190476190477}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
